--- a/data/output/table_writer_test.xlsx
+++ b/data/output/table_writer_test.xlsx
@@ -444,7 +444,7 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="27" customWidth="1" min="10" max="10"/>
     <col width="8" customWidth="1" min="11" max="11"/>
-    <col width="13" customWidth="1" min="12" max="12"/>
+    <col width="11" customWidth="1" min="12" max="12"/>
     <col width="22" customWidth="1" min="13" max="13"/>
     <col width="26" customWidth="1" min="14" max="14"/>
     <col width="13" customWidth="1" min="15" max="15"/>
@@ -548,28 +548,12 @@
           <t>ул. Тестовая, 1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>ЗУ: -</t>
-        </is>
-      </c>
+      <c r="C2" t="inlineStr"/>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>74:36:0000000:123 ()</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>-</t>
-        </is>
-      </c>
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>1000 м²</t>
@@ -577,27 +561,15 @@
       </c>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>ООО Ромашка</t>
-        </is>
-      </c>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Автоматически</t>
-        </is>
-      </c>
+      <c r="L2" t="inlineStr"/>
+      <c r="M2" t="inlineStr"/>
       <c r="N2" t="inlineStr"/>
       <c r="O2" t="inlineStr">
         <is>
           <t>Иванов И.И.</t>
         </is>
       </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>до</t>
-        </is>
-      </c>
+      <c r="P2" t="inlineStr"/>
       <c r="Q2" t="inlineStr">
         <is>
           <t>test.pdf</t>

--- a/data/output/table_writer_test.xlsx
+++ b/data/output/table_writer_test.xlsx
@@ -17,7 +17,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="2">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
@@ -28,13 +28,41 @@
     <font>
       <b val="1"/>
     </font>
+    <font>
+      <name val="Arial"/>
+      <b val="1"/>
+      <color rgb="00FFFFFF"/>
+      <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <sz val="10"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00366092"/>
+        <bgColor rgb="00366092"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00D9E1F2"/>
+        <bgColor rgb="00D9E1F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FFEB9C"/>
+        <bgColor rgb="00FFEB9C"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -55,10 +83,19 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -428,7 +465,8 @@
   <dimension ref="A1:Q2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -447,130 +485,142 @@
     <col width="11" customWidth="1" min="12" max="12"/>
     <col width="22" customWidth="1" min="13" max="13"/>
     <col width="26" customWidth="1" min="14" max="14"/>
-    <col width="13" customWidth="1" min="15" max="15"/>
+    <col width="30" customWidth="1" min="15" max="15"/>
     <col width="22" customWidth="1" min="16" max="16"/>
     <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
+    <row r="1" ht="30" customHeight="1">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t>№ п/п</t>
         </is>
       </c>
-      <c r="B1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Адрес, комплекс</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
+      <c r="C1" s="2" t="inlineStr">
         <is>
           <t>Наименование здания</t>
         </is>
       </c>
-      <c r="D1" s="1" t="inlineStr">
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>Литера / Строение</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="E1" s="2" t="inlineStr">
         <is>
           <t>Кадастр. номер ЗУ</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>Кадастр. номер здания</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
         <is>
           <t>№ помещения</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>Этаж</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="I1" s="2" t="inlineStr">
         <is>
           <t>Площадь (м²)</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="J1" s="2" t="inlineStr">
         <is>
           <t>Предполагаемое назначение</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="K1" s="2" t="inlineStr">
         <is>
           <t>Статус</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="L1" s="2" t="inlineStr">
         <is>
           <t>Арендатор</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="M1" s="2" t="inlineStr">
         <is>
           <t>Подтверждение из PDF</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="N1" s="2" t="inlineStr">
         <is>
           <t>Примечания и расхождения</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="O1" s="2" t="inlineStr">
         <is>
           <t>Собственник</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="P1" s="2" t="inlineStr">
         <is>
           <t>Обременение (аренда)</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="Q1" s="2" t="inlineStr">
         <is>
           <t>PDF-источник</t>
         </is>
       </c>
     </row>
-    <row r="2">
-      <c r="A2" t="n">
+    <row r="2" ht="20" customHeight="1">
+      <c r="A2" s="3" t="n">
         <v>1</v>
       </c>
-      <c r="B2" t="inlineStr">
+      <c r="B2" s="3" t="inlineStr">
         <is>
           <t>ул. Тестовая, 1</t>
         </is>
       </c>
-      <c r="C2" t="inlineStr"/>
-      <c r="D2" t="inlineStr"/>
-      <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr"/>
-      <c r="G2" t="inlineStr"/>
-      <c r="H2" t="inlineStr"/>
-      <c r="I2" t="inlineStr">
+      <c r="C2" s="3" t="inlineStr"/>
+      <c r="D2" s="3" t="inlineStr"/>
+      <c r="E2" s="4" t="inlineStr">
+        <is>
+          <t>-</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr"/>
+      <c r="G2" s="3" t="inlineStr"/>
+      <c r="H2" s="3" t="inlineStr"/>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>1000 м²</t>
         </is>
       </c>
-      <c r="J2" t="inlineStr"/>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr"/>
-      <c r="N2" t="inlineStr"/>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>Иванов И.И.</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr"/>
-      <c r="Q2" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr"/>
+      <c r="K2" s="3" t="inlineStr"/>
+      <c r="L2" s="3" t="inlineStr"/>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Автоматически</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr"/>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>{'full_name': 'Иванов И.И.'}</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>до Бессрочно</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>test.pdf</t>
         </is>
